--- a/Libro4.xlsx
+++ b/Libro4.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dirvin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariordz/Documents/Documentos - MacBook Pro de Mario/UPV/Materias/2019/Ene-Abr/Intro ITI/repo CISCO/ITI-demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9330"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="24000" windowHeight="9340"/>
   </bookViews>
   <sheets>
     <sheet name="MAIL IEMS RESUMEN   (2)" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,15 @@
     <definedName name="Rec_Humanos_Agosto_09">'[4]RH AGOSTO 2009 GOB EDO list '!$A$1:$N$77</definedName>
     <definedName name="RH31Julio2009">'[5]RH JULIO 2009 GOB EDO listo DBF'!$A$1:$N$76</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -264,8 +270,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +327,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -352,16 +365,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -370,7 +383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -428,6 +441,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10859,32 +10875,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="7" width="33.28515625" customWidth="1"/>
-    <col min="8" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="10" width="27.42578125" customWidth="1"/>
-    <col min="11" max="11" width="28.42578125" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" customWidth="1"/>
+    <col min="4" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="7" width="33.33203125" customWidth="1"/>
+    <col min="8" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="10" width="27.5" customWidth="1"/>
+    <col min="11" max="11" width="28.5" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" customWidth="1"/>
+    <col min="17" max="17" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="4" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="4" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -10954,7 +10970,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -11028,7 +11044,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>47</v>
       </c>
@@ -11090,7 +11106,7 @@
       <c r="W3" s="7"/>
       <c r="X3" s="9"/>
     </row>
-    <row r="4" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>65</v>
       </c>
@@ -11128,13 +11144,13 @@
       <c r="W4" s="12"/>
       <c r="X4" s="12"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
